--- a/data/evaluation/evaluation_Center_Winter_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Sweet Potatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1401.573315398887</v>
+        <v>1411.036807462379</v>
       </c>
       <c r="C3" t="n">
-        <v>14228198.13592566</v>
+        <v>14238583.88089921</v>
       </c>
       <c r="D3" t="n">
-        <v>3772.028384825021</v>
+        <v>3773.4048127519</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5620121690305445</v>
+        <v>0.5616924637614367</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1619.118764011156</v>
+        <v>1682.969731108747</v>
       </c>
       <c r="C4" t="n">
-        <v>14745097.29549857</v>
+        <v>15497633.55935286</v>
       </c>
       <c r="D4" t="n">
-        <v>3839.934543126819</v>
+        <v>3936.70338727124</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5461004183247659</v>
+        <v>0.5229350306359928</v>
       </c>
     </row>
     <row r="5">
